--- a/data/trans_bre/P35-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P35-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>9.427263296129517</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.966586937723084</v>
+        <v>6.966586937723079</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0531935660205284</v>
@@ -649,7 +649,7 @@
         <v>0.2882547445367139</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.172707189580961</v>
+        <v>0.1727071895809609</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.397122071191597</v>
+        <v>-3.421480771820633</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.407673923544616</v>
+        <v>7.704056058282595</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.14768304225904</v>
+        <v>5.217133459003541</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.387426367959126</v>
+        <v>0.52802215532096</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1295470509035883</v>
+        <v>-0.1367375649942112</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2914357449437217</v>
+        <v>0.2662486610613072</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1468624905056236</v>
+        <v>0.1475537254016041</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.03261859886913853</v>
+        <v>0.01209483278869878</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.434484574441365</v>
+        <v>5.857860828782947</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.12605376054615</v>
+        <v>16.04656963730093</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.39371212265209</v>
+        <v>13.44903617553476</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.8631178571906</v>
+        <v>12.60330310630208</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2672463893132248</v>
+        <v>0.2902803383017966</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6672256390214187</v>
+        <v>0.6626502175748897</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.434998254603493</v>
+        <v>0.4409705440600726</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3557219845251465</v>
+        <v>0.3468140407558882</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.158933103859544</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.924942008738362</v>
+        <v>1.924942008738367</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2789270154960587</v>
@@ -749,7 +749,7 @@
         <v>0.2537426137501392</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.04246646305081839</v>
+        <v>0.04246646305081851</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.181019454188911</v>
+        <v>1.359509848560749</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.877269155717374</v>
+        <v>3.745069529630059</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.713390791571577</v>
+        <v>2.270358959585315</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.185017511099623</v>
+        <v>-2.363792610825697</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06410984720515137</v>
+        <v>0.07349473061533797</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1391535026796793</v>
+        <v>0.1335642525944078</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09138985575187097</v>
+        <v>0.07453350244001795</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.04519687121280494</v>
+        <v>-0.04974514599948003</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.174892596335697</v>
+        <v>7.8934637222217</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.46509813713671</v>
+        <v>12.8144050941467</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.45719055833545</v>
+        <v>10.8265532582498</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.565631817019686</v>
+        <v>6.240421990441673</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5530459673520234</v>
+        <v>0.527950188914594</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5391865997909903</v>
+        <v>0.5617044918728591</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4496509518861428</v>
+        <v>0.4151283974499612</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1548033528744686</v>
+        <v>0.1465927035248441</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.42750040877295</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8712860227408525</v>
+        <v>0.871286022740847</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2839122394458943</v>
@@ -849,7 +849,7 @@
         <v>0.0584499520738615</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.02737444511871756</v>
+        <v>0.02737444511871738</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.105652983615616</v>
+        <v>1.080309366264604</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.739384751311697</v>
+        <v>-1.220801816918397</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.233324752961679</v>
+        <v>-3.679390953336618</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.993911618201751</v>
+        <v>-3.128491382783817</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.06267637706151441</v>
+        <v>0.05708243881031532</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.05806959537996893</v>
+        <v>-0.0436795710372652</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1187128416704562</v>
+        <v>-0.1392541250599736</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.0887852563686256</v>
+        <v>-0.09328319254965452</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.239932694399146</v>
+        <v>7.990826557112171</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.646114614262944</v>
+        <v>8.074215406022741</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.726596389130865</v>
+        <v>5.567487552795374</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.907164300250758</v>
+        <v>4.845612815999342</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.568077004001406</v>
+        <v>0.5386805363017193</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3084824422549803</v>
+        <v>0.3278138757953546</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.259449724848941</v>
+        <v>0.2473281756646321</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1700174229405904</v>
+        <v>0.1643677310321103</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.789355806334268</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.458422055645823</v>
+        <v>2.458422055645826</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1349497918414547</v>
@@ -949,7 +949,7 @@
         <v>0.3044628983282081</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.104912547470519</v>
+        <v>0.1049125474705191</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.862373685156055</v>
+        <v>-3.525718933368556</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.600059693369806</v>
+        <v>2.983863460619629</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8778828917899342</v>
+        <v>0.9312018148911835</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.9513594684632557</v>
+        <v>-1.411829754800499</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2137332759289831</v>
+        <v>-0.1887580030353023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08222346795684912</v>
+        <v>0.102153316063958</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03752358578791828</v>
+        <v>0.03679682604726544</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04108543996092699</v>
+        <v>-0.05584848059939272</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.337898917003006</v>
+        <v>7.873444979073346</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.08570524167266</v>
+        <v>16.62984035159565</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.2446193698146</v>
+        <v>12.3776036711759</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.610708642633817</v>
+        <v>6.417671071531025</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.603436371663978</v>
+        <v>0.5598914734208964</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7180274091131699</v>
+        <v>0.742344437185036</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6155127946484233</v>
+        <v>0.6134676207020172</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3122617368738491</v>
+        <v>0.302269396100456</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.996989272867872</v>
+        <v>2.009710648130403</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.978168808487944</v>
+        <v>5.956568302084875</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.460420217244457</v>
+        <v>4.732620857391105</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.349012865135573</v>
+        <v>1.334753433277135</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1082702827710581</v>
+        <v>0.1097941325434795</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2186397367501779</v>
+        <v>0.2179250110143808</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1542493830485277</v>
+        <v>0.1622427644763642</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.03952662137277099</v>
+        <v>0.03850595799557479</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.045004912364718</v>
+        <v>6.175439314419151</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.83711547623729</v>
+        <v>10.37556065808963</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.471352928741343</v>
+        <v>9.193117138300478</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.659089801719737</v>
+        <v>5.600841238358914</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3644179409754895</v>
+        <v>0.3776899809718755</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4334741300808274</v>
+        <v>0.4189379884134731</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3563686359737095</v>
+        <v>0.3408375655536866</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1712410312184977</v>
+        <v>0.171743248441812</v>
       </c>
     </row>
     <row r="19">
